--- a/Valuation Modeling/Valuation Modeling-Time Caculation.xlsx
+++ b/Valuation Modeling/Valuation Modeling-Time Caculation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
   <si>
     <t>会计基础知识</t>
   </si>
@@ -184,6 +184,90 @@
   </si>
   <si>
     <t>电脑卡住了</t>
+  </si>
+  <si>
+    <t>电脑卡</t>
+  </si>
+  <si>
+    <t>微信聊天</t>
+  </si>
+  <si>
+    <t>买水</t>
+  </si>
+  <si>
+    <t>刷手机+累了</t>
+  </si>
+  <si>
+    <t>相对估值法</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>P64</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>吃早饭</t>
   </si>
 </sst>
 </file>
@@ -298,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -355,6 +439,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,9 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -681,20 +771,20 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1191,20 +1281,20 @@
       <c r="A18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1232,18 +1322,26 @@
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <f>J19</f>
+        <v>385</v>
+      </c>
       <c r="H19" s="17">
         <v>0.6791666666666667</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="1">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="J19" s="8">
+        <f>6*60+25</f>
+        <v>385</v>
+      </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="26" t="str">
-        <f>TEXT(J19-I19,"h小时m分")</f>
-        <v>0小时0分</v>
+        <f>TEXT(I19-H19,"h小时m分")</f>
+        <v>6小时25分</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1251,7 +1349,8 @@
         <v>20</v>
       </c>
       <c r="B20" s="13">
-        <v>30</v>
+        <f>B29+B30+B31+B38+B45</f>
+        <v>110</v>
       </c>
       <c r="C20" s="15">
         <v>0.77083333333333337</v>
@@ -1265,7 +1364,10 @@
       <c r="F20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13">
+        <f>G29+G38+G45+G51</f>
+        <v>120</v>
+      </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="8"/>
@@ -1293,7 +1395,10 @@
       <c r="F21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13">
+        <f>G19-G20-G22</f>
+        <v>16</v>
+      </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="8"/>
@@ -1321,7 +1426,10 @@
       <c r="F22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13">
+        <f>SUM(G24:G28,G32:G37,G39:G44,G46:G50)</f>
+        <v>249</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="8"/>
@@ -1380,7 +1488,7 @@
       <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="29">
         <v>8</v>
       </c>
       <c r="H24" s="1">
@@ -1410,7 +1518,7 @@
       <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="29">
         <v>6</v>
       </c>
       <c r="H25" s="1">
@@ -1421,7 +1529,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="26" t="str">
-        <f t="shared" ref="K25:K41" si="1">MID(TEXT(I25-H25,"h小时m分"),4,1)</f>
+        <f t="shared" ref="K25" si="1">MID(TEXT(I25-H25,"h小时m分"),4,1)</f>
         <v>6</v>
       </c>
       <c r="L25" s="21"/>
@@ -1437,11 +1545,14 @@
         <v>0.6875</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" ref="E26:E34" si="2">E25+1</f>
+        <f t="shared" ref="E26:E51" si="2">E25+1</f>
         <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>31</v>
+      </c>
+      <c r="G26" s="29">
+        <v>13</v>
       </c>
       <c r="H26" s="1">
         <v>0.68888888888888899</v>
@@ -1475,6 +1586,9 @@
       <c r="F27" t="s">
         <v>32</v>
       </c>
+      <c r="G27" s="29">
+        <v>11</v>
+      </c>
       <c r="H27" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -1485,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="26" t="str">
-        <f t="shared" ref="K27:K32" si="3">MID(TEXT(I27-H27,"h小时m分"),4,2)</f>
+        <f t="shared" ref="K27:K41" si="3">MID(TEXT(I27-H27,"h小时m分"),4,2)</f>
         <v>11</v>
       </c>
       <c r="L27" s="21"/>
@@ -1510,9 +1624,18 @@
       <c r="F28" t="s">
         <v>33</v>
       </c>
+      <c r="G28" s="29">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.78402777777777777</v>
+      </c>
       <c r="K28" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>0分</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1535,10 +1658,13 @@
       <c r="F29" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>0分</v>
-      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1560,10 +1686,7 @@
       <c r="F30" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>0分</v>
-      </c>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1585,10 +1708,10 @@
       <c r="F31" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>0分</v>
-      </c>
+      <c r="I31" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1607,9 +1730,21 @@
       <c r="F32" t="s">
         <v>34</v>
       </c>
+      <c r="G32" s="29">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
       <c r="K32" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>0分</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,6 +1754,9 @@
       <c r="B33">
         <v>10</v>
       </c>
+      <c r="C33" s="1">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="E33" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1626,9 +1764,18 @@
       <c r="F33" t="s">
         <v>35</v>
       </c>
+      <c r="G33" s="29">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.80694444444444446</v>
+      </c>
       <c r="K33" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1638,6 +1785,9 @@
       <c r="B34">
         <v>10</v>
       </c>
+      <c r="C34" s="1">
+        <v>0.78472222222222199</v>
+      </c>
       <c r="E34" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1645,9 +1795,18 @@
       <c r="F34" t="s">
         <v>36</v>
       </c>
+      <c r="G34" s="29">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="K34" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>MID(TEXT(I34-H34,"h小时m分"),4,1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,12 +1816,31 @@
       <c r="B35">
         <v>10</v>
       </c>
+      <c r="C35" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="F35" t="s">
         <v>37</v>
       </c>
+      <c r="G35" s="29">
+        <v>27</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
       <c r="K35" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,12 +1850,28 @@
       <c r="B36">
         <v>10</v>
       </c>
+      <c r="C36" s="1">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="F36" t="s">
         <v>38</v>
       </c>
+      <c r="G36" s="29">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.85</v>
+      </c>
       <c r="K36" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>MID(TEXT(I36-H36,"h小时m分"),4,1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1687,15 +1881,31 @@
       <c r="B37">
         <v>10</v>
       </c>
+      <c r="C37" s="1">
+        <v>0.80555555555555503</v>
+      </c>
       <c r="D37" s="1">
         <v>0.8125</v>
       </c>
+      <c r="E37" s="22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
+      <c r="G37" s="29">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.85763888888888884</v>
+      </c>
       <c r="K37" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,12 +1921,28 @@
       <c r="D38" s="1">
         <v>0.81944444444444453</v>
       </c>
+      <c r="E38" s="22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
+      <c r="G38" s="29">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
       <c r="K38" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1729,12 +1955,25 @@
       <c r="C39" s="1">
         <v>0.81944444444444453</v>
       </c>
+      <c r="E39" s="22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="F39" t="s">
         <v>40</v>
       </c>
+      <c r="G39" s="29">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.86736111111111114</v>
+      </c>
       <c r="K39" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1744,12 +1983,25 @@
       <c r="B40">
         <v>10</v>
       </c>
+      <c r="E40" s="22">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="F40" t="s">
         <v>41</v>
       </c>
+      <c r="G40" s="29">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.86736111111111114</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.87083333333333324</v>
+      </c>
       <c r="K40" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>MID(TEXT(I40-H40,"h小时m分"),4,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1759,12 +2011,25 @@
       <c r="B41">
         <v>10</v>
       </c>
+      <c r="E41" s="22">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="F41" t="s">
         <v>42</v>
       </c>
+      <c r="G41" s="29">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.87847222222222221</v>
+      </c>
       <c r="K41" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>MID(TEXT(I41-H41,"h小时m分"),4,2)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1774,8 +2039,25 @@
       <c r="B42">
         <v>10</v>
       </c>
+      <c r="E42" s="22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="F42" t="s">
         <v>43</v>
+      </c>
+      <c r="G42" s="29">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="K42" s="26" t="str">
+        <f t="shared" ref="K42:K49" si="4">MID(TEXT(I42-H42,"h小时m分"),4,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1785,8 +2067,25 @@
       <c r="B43">
         <v>10</v>
       </c>
+      <c r="E43" s="22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="F43" t="s">
         <v>44</v>
+      </c>
+      <c r="G43" s="29">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="K43" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,8 +2098,25 @@
       <c r="D44" s="1">
         <v>0.86111111111111116</v>
       </c>
+      <c r="E44" s="22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="F44" t="s">
         <v>45</v>
+      </c>
+      <c r="G44" s="29">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="K44" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,8 +2132,25 @@
       <c r="D45" s="1">
         <v>0.875</v>
       </c>
+      <c r="E45" s="22">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="F45" t="s">
         <v>18</v>
+      </c>
+      <c r="G45" s="29">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="K45" s="26" t="str">
+        <f>MID(TEXT(I45-H45,"h小时m分"),4,2)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1830,8 +2163,25 @@
       <c r="C46" s="1">
         <v>0.875</v>
       </c>
+      <c r="E46" s="22">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
       <c r="F46" t="s">
         <v>46</v>
+      </c>
+      <c r="G46" s="29">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="K46" s="26" t="str">
+        <f>MID(TEXT(I46-H46,"h小时m分"),4,2)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1841,8 +2191,25 @@
       <c r="B47">
         <v>10</v>
       </c>
+      <c r="E47" s="22">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="F47" t="s">
         <v>47</v>
+      </c>
+      <c r="G47" s="29">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="K47" s="26" t="str">
+        <f>MID(TEXT(I47-H47,"h小时m分"),4,2)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1852,22 +2219,62 @@
       <c r="B48">
         <v>10</v>
       </c>
+      <c r="E48" s="22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
       <c r="F48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="29">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="J48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
+      <c r="E49" s="22">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="F49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="29">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1877,16 +2284,980 @@
       <c r="D50" s="1">
         <v>0.90972222222222221</v>
       </c>
+      <c r="E50" s="22">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
       <c r="F50" t="s">
         <v>50</v>
       </c>
+      <c r="G50" s="29">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="K50" s="26" t="str">
+        <f>MID(TEXT(I50-H50,"h小时m分"),4,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="22">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="29">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="K51" s="26" t="str">
+        <f>MID(TEXT(I51-H51,"h小时m分"),4,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="13">
+        <f>SUM(B58:B85)</f>
+        <v>142</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="13">
+        <f>J53</f>
+        <v>385</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="J53" s="8">
+        <f>6*60+25</f>
+        <v>385</v>
+      </c>
+      <c r="K53" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13">
+        <v>10</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="13">
+        <f>G64+G74+G81+G86</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="13">
+        <f>SUM(E53:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G53-G54-G56</f>
+        <v>385</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="13">
+        <f>SUM(B58:B80)</f>
+        <v>142</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="13">
+        <f>SUM(G58:G62,G68:G73,G75:G80,G82:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="1">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="K58" s="26" t="str">
+        <f>MID(TEXT(I58-H58,"h小时m分"),4,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:C78" si="5">D58</f>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E59" s="22">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="26" t="str">
+        <f t="shared" ref="K59" si="6">MID(TEXT(I59-H59,"h小时m分"),4,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E60" s="22">
+        <f t="shared" ref="E60:E80" si="7">E59+1</f>
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="26" t="str">
+        <f>MID(TEXT(I60-H60,"h小时m分"),4,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E61" s="22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="1">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="26" t="str">
+        <f t="shared" ref="K61:K66" si="8">MID(TEXT(I61-H61,"h小时m分"),4,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E62" s="22">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="29"/>
+      <c r="H62" s="1">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="K62" s="26" t="str">
+        <f>MID(TEXT(I62-H62,"h小时m分"),4,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="1">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="K63" s="26" t="str">
+        <f>MID(TEXT(I63-H63,"h小时m分"),4,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="E64" s="22">
+        <f>E62+1</f>
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="26" t="str">
+        <f>MID(TEXT(I64-H64,"h小时m分"),4,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="E65" s="22">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="26" t="str">
+        <f>MID(TEXT(I65-H65,"h小时m分"),4,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="E66" s="22">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="K66" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="E67" s="22">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="K67" s="26">
+        <f>60-23+13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="5"/>
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E68" s="22">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="1">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="K68" s="26" t="str">
+        <f>MID(TEXT(I69-H69,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="5"/>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="E69" s="22">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="K69" s="26" t="str">
+        <f>MID(TEXT(I70-H70,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="E70" s="22">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="29"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="K70" s="26" t="str">
+        <f>MID(TEXT(I71-H71,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E71" s="22">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="29"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="K71" s="26" t="str">
+        <f>MID(TEXT(I72-H72,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="E72" s="22">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="K72" s="26" t="str">
+        <f>MID(TEXT(I73-H73,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E73" s="22">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="K73" s="26" t="str">
+        <f>MID(TEXT(I74-H74,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="E74" s="22">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="29"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="K74" s="26" t="str">
+        <f>MID(TEXT(I75-H75,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="E75" s="22">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="K75" s="26" t="str">
+        <f>MID(TEXT(I76-H76,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="E76" s="22">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="29"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="K76" s="26" t="str">
+        <f>MID(TEXT(I77-H77,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="E77" s="22">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="29"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="K77" s="26" t="str">
+        <f>MID(TEXT(I78-H78,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E78" s="22">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="29"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="K78" s="26" t="str">
+        <f>MID(TEXT(I79-H79,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1">
+        <f>D78</f>
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E79" s="22">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="K79" s="26" t="str">
+        <f>MID(TEXT(I80-H80,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <f>D79</f>
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E80" s="22">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="K80" s="26" t="str">
+        <f>MID(TEXT(I81-H81,"h小时m分"),4,2)</f>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="E81" s="22"/>
+      <c r="F81" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="K81" s="26"/>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E82" s="22"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="K82" s="26"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E83" s="22"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="K83" s="26"/>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E84" s="22"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="K84" s="26"/>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D85" s="1"/>
+      <c r="E85" s="22"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="K85" s="26"/>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E86" s="22"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="K86" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Valuation Modeling/Valuation Modeling-Time Caculation.xlsx
+++ b/Valuation Modeling/Valuation Modeling-Time Caculation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
   <si>
     <t>会计基础知识</t>
   </si>
@@ -268,12 +268,54 @@
   </si>
   <si>
     <t>吃早饭</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>玩手机、上厕所</t>
+  </si>
+  <si>
+    <t>洗澡</t>
+  </si>
+  <si>
+    <t>笔试题</t>
+  </si>
+  <si>
+    <t>其他工作时长</t>
+  </si>
+  <si>
+    <t>可能摸鱼原因</t>
+  </si>
+  <si>
+    <t>没睡好、在宿舍学习</t>
+  </si>
+  <si>
+    <t>绝对估值法</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>刷朋友圈</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -443,6 +485,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -744,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,20 +817,20 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1281,20 +1327,20 @@
       <c r="A18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1599,7 +1645,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="26" t="str">
-        <f t="shared" ref="K27:K41" si="3">MID(TEXT(I27-H27,"h小时m分"),4,2)</f>
+        <f t="shared" ref="K27:K39" si="3">MID(TEXT(I27-H27,"h小时m分"),4,2)</f>
         <v>11</v>
       </c>
       <c r="L27" s="21"/>
@@ -2243,7 +2289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2274,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E51" s="22">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2327,24 +2373,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="7" t="s">
         <v>27</v>
       </c>
@@ -2352,39 +2398,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="13">
-        <f>SUM(B58:B85)</f>
+        <f>SUM(B59:B81)</f>
         <v>142</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="8"/>
+      <c r="C53" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E53" s="8">
+        <f>2*60+22</f>
+        <v>142</v>
+      </c>
       <c r="F53" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="13">
-        <f>J53</f>
-        <v>385</v>
+        <f>SUM(J53:J57)</f>
+        <v>479</v>
       </c>
       <c r="H53" s="17">
-        <v>0.6791666666666667</v>
+        <v>0.41805555555555557</v>
       </c>
       <c r="I53" s="1">
-        <v>0.94652777777777775</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="J53" s="8">
-        <f>6*60+25</f>
-        <v>385</v>
+        <f>7*60+49</f>
+        <v>469</v>
       </c>
       <c r="K53" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="26" t="str">
+        <f>TEXT(I53-H53,"h小时m分")</f>
+        <v>7小时49分</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>20</v>
       </c>
@@ -2398,24 +2455,31 @@
         <v>20</v>
       </c>
       <c r="G54" s="13">
-        <f>G64+G74+G81+G86</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="8"/>
+        <f>SUM(G64,G68,G80:G81)</f>
+        <v>131</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="J54" s="8">
+        <v>10</v>
+      </c>
       <c r="K54" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="26" t="str">
+        <f>TEXT(I54-H54,"h小时m分")</f>
+        <v>0小时10分</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="13">
-        <f>SUM(E53:E56)</f>
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
@@ -2423,8 +2487,8 @@
         <v>25</v>
       </c>
       <c r="G55" s="13">
-        <f>G53-G54-G56</f>
-        <v>385</v>
+        <f>G53-G54-G57</f>
+        <v>79</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -2433,290 +2497,286 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="13">
-        <f>SUM(B58:B80)</f>
-        <v>142</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
       <c r="F56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="13">
-        <f>SUM(G58:G62,G68:G73,G75:G80,G82:G85)</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="22">
+      <c r="K56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="13">
+        <f>SUM(B59:B63,B65:B81)</f>
+        <v>132</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="13">
+        <f>SUM(G59:G63,G65:G67,G69:G79,G82:G84)</f>
+        <v>269</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="B58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E58" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="12" t="s">
+      <c r="G58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="J58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="24" t="s">
+      <c r="K58" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>61</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="E58" s="22">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="1">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="K58" s="26" t="str">
-        <f>MID(TEXT(I58-H58,"h小时m分"),4,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59:C78" si="5">D58</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D59" s="1">
         <v>0.42083333333333334</v>
       </c>
-      <c r="D59" s="1">
-        <v>0.42499999999999999</v>
-      </c>
       <c r="E59" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="29">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="K59" s="26" t="str">
+        <f>MID(TEXT(I59-H59,"h小时m分"),4,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>62</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="1">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="26" t="str">
-        <f t="shared" ref="K59" si="6">MID(TEXT(I59-H59,"h小时m分"),4,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60" s="1">
+        <f t="shared" ref="C60:C79" si="5">D59</f>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E60" s="22">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="29">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="26" t="str">
+        <f t="shared" ref="K60" si="6">MID(TEXT(I60-H60,"h小时m分"),4,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
         <f t="shared" si="5"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>0.4291666666666667</v>
       </c>
-      <c r="E60" s="22">
-        <f t="shared" ref="E60:E80" si="7">E59+1</f>
+      <c r="E61" s="22">
+        <f t="shared" ref="E61:E84" si="7">E60+1</f>
         <v>3</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="1">
+      <c r="G61" s="29">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I61" s="1">
         <v>0.42569444444444443</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="26" t="str">
-        <f>MID(TEXT(I60-H60,"h小时m分"),4,1)</f>
+      <c r="J61" s="1"/>
+      <c r="K61" s="26" t="str">
+        <f>MID(TEXT(I61-H61,"h小时m分"),4,1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>6</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C62" s="1">
         <f t="shared" si="5"/>
         <v>0.4291666666666667</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D62" s="1">
         <v>0.43333333333333335</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E62" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="1">
+      <c r="G62" s="29">
+        <v>19</v>
+      </c>
+      <c r="H62" s="1">
         <v>0.42569444444444443</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I62" s="1">
         <v>0.43888888888888888</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="26" t="str">
-        <f t="shared" ref="K61:K66" si="8">MID(TEXT(I61-H61,"h小时m分"),4,2)</f>
+      <c r="J62" s="1"/>
+      <c r="K62" s="26" t="str">
+        <f t="shared" ref="K62:K67" si="8">MID(TEXT(I62-H62,"h小时m分"),4,2)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>6</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C63" s="1">
         <f t="shared" si="5"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D63" s="1">
         <v>0.4375</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E63" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="1">
+      <c r="G63" s="29">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1">
         <v>0.43888888888888888</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I63" s="1">
         <v>0.44513888888888892</v>
       </c>
-      <c r="K62" s="26" t="str">
-        <f>MID(TEXT(I62-H62,"h小时m分"),4,1)</f>
+      <c r="K63" s="26" t="str">
+        <f>MID(TEXT(I63-H63,"h小时m分"),4,1)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
         <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D64" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="E63" s="22"/>
-      <c r="F63" t="s">
+      <c r="E64" s="22"/>
+      <c r="F64" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="1">
+      <c r="G64" s="29">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
         <v>0.43888888888888888</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I64" s="1">
         <v>0.44166666666666665</v>
-      </c>
-      <c r="K63" s="26" t="str">
-        <f>MID(TEXT(I63-H63,"h小时m分"),4,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="5"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.44861111111111113</v>
-      </c>
-      <c r="E64" s="22">
-        <f>E62+1</f>
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.4458333333333333</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.44861111111111113</v>
-      </c>
-      <c r="J64" t="s">
-        <v>12</v>
       </c>
       <c r="K64" s="26" t="str">
         <f>MID(TEXT(I64-H64,"h小时m分"),4,1)</f>
@@ -2725,533 +2785,1331 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.44861111111111113</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="22">
+        <f>E63+1</f>
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="29">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="26" t="str">
+        <f>MID(TEXT(I65-H65,"h小时m分"),4,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E66" s="22">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="1">
+      <c r="G66" s="29">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
         <v>0.45208333333333334</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I66" s="1">
         <v>0.45555555555555555</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J66" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="26" t="str">
-        <f>MID(TEXT(I65-H65,"h小时m分"),4,1)</f>
+      <c r="K66" s="26" t="str">
+        <f>MID(TEXT(I66-H66,"h小时m分"),4,1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>6</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <f t="shared" si="5"/>
         <v>0.45277777777777778</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>0.45694444444444443</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E67" s="22">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="1">
+      <c r="G67" s="29">
+        <v>11</v>
+      </c>
+      <c r="H67" s="1">
         <v>0.46666666666666662</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I67" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K66" s="26" t="str">
+      <c r="K67" s="26" t="str">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>6</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C68" s="1">
         <f t="shared" si="5"/>
         <v>0.45694444444444443</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D68" s="1">
         <v>0.46111111111111108</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E68" s="22">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="1">
+      <c r="G68">
+        <v>50</v>
+      </c>
+      <c r="H68" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I68" s="1">
         <v>0.55069444444444449</v>
       </c>
-      <c r="K67" s="26">
+      <c r="K68" s="26">
         <f>60-23+13</f>
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>6</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C69" s="1">
         <f t="shared" si="5"/>
         <v>0.46111111111111108</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D69" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E69" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="1">
+      <c r="G69" s="29">
+        <v>23</v>
+      </c>
+      <c r="H69" s="1">
         <v>0.54999999999999993</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I69" s="1">
         <v>0.56041666666666667</v>
       </c>
-      <c r="K68" s="26" t="str">
-        <f>MID(TEXT(I69-H69,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="K69" s="26" t="str">
+        <f t="shared" ref="K69" si="9">MID(TEXT(I70-H70,"h小时m分"),4,2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>6</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C70" s="1">
         <f t="shared" si="5"/>
         <v>0.46527777777777773</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D70" s="1">
         <v>0.4694444444444445</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="22">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>70</v>
       </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="K69" s="26" t="str">
+      <c r="G70" s="29">
+        <v>23</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K70" s="26" t="str">
         <f>MID(TEXT(I70-H70,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>6</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <f t="shared" si="5"/>
         <v>0.4694444444444445</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D71" s="1">
         <v>0.47361111111111115</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E71" s="22">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="K70" s="26" t="str">
-        <f>MID(TEXT(I71-H71,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="G71" s="29">
+        <v>22</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="J71" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71" s="26" t="str">
+        <f t="shared" ref="K71:K74" si="10">MID(TEXT(I71-H71,"h小时m分"),4,2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>6</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <f t="shared" si="5"/>
         <v>0.47361111111111115</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D72" s="1">
         <v>0.4777777777777778</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E72" s="22">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>72</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="K71" s="26" t="str">
-        <f>MID(TEXT(I72-H72,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="G72" s="29">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="J72" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>6</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <f t="shared" si="5"/>
         <v>0.4777777777777778</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D73" s="1">
         <v>0.48194444444444445</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E73" s="22">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>73</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="K72" s="26" t="str">
-        <f>MID(TEXT(I73-H73,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="G73" s="29">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="K73" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>6</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C74" s="1">
         <f t="shared" si="5"/>
         <v>0.48194444444444445</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <v>0.4861111111111111</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E74" s="22">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="K73" s="26" t="str">
-        <f>MID(TEXT(I74-H74,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="G74" s="29">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="K74" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>6</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C75" s="1">
         <f t="shared" si="5"/>
         <v>0.4861111111111111</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D75" s="1">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E75" s="22">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>75</v>
       </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="K74" s="26" t="str">
-        <f>MID(TEXT(I75-H75,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="G75" s="29">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="K75" s="26" t="str">
+        <f>MID(TEXT(I75-H75,"h小时m分"),4,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>6</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C76" s="1">
         <f t="shared" si="5"/>
         <v>0.49027777777777781</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D76" s="1">
         <v>0.49444444444444446</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E76" s="22">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>76</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="K75" s="26" t="str">
+      <c r="G76" s="29">
+        <v>13</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="K76" s="26" t="str">
         <f>MID(TEXT(I76-H76,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>6</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C77" s="1">
         <f t="shared" si="5"/>
         <v>0.49444444444444446</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D77" s="1">
         <v>0.49861111111111112</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E77" s="22">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="K76" s="26" t="str">
-        <f>MID(TEXT(I77-H77,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="G77" s="29">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="K77" s="26" t="str">
+        <f>MID(TEXT(I77-H77,"h小时m分"),4,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>6</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C78" s="1">
         <f t="shared" si="5"/>
         <v>0.49861111111111112</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D78" s="1">
         <v>0.50277777777777777</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="22">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="29"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="K77" s="26" t="str">
+      <c r="G78" s="29">
+        <v>18</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="K78" s="26" t="str">
         <f>MID(TEXT(I78-H78,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>6</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C79" s="1">
         <f t="shared" si="5"/>
         <v>0.50277777777777777</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D79" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E79" s="22">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="29"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="K78" s="26" t="str">
+      <c r="G79" s="29">
+        <v>15</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="J79" t="s">
+        <v>85</v>
+      </c>
+      <c r="K79" s="26" t="str">
         <f>MID(TEXT(I79-H79,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>6</v>
       </c>
-      <c r="C79" s="1">
-        <f>D78</f>
+      <c r="C80" s="1">
+        <f>D79</f>
         <v>0.50694444444444442</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>0.51111111111111118</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E80" s="22">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="F79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="K79" s="26" t="str">
-        <f>MID(TEXT(I80-H80,"h小时m分"),4,2)</f>
-        <v>0分</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80">
+        <v>60</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="K80" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>6</v>
       </c>
-      <c r="C80" s="1">
-        <f>D79</f>
+      <c r="C81" s="1">
+        <f>D80</f>
         <v>0.51111111111111118</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D81" s="1">
         <v>0.51527777777777783</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E81" s="22">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="29">
+        <v>17</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="K81" s="26" t="str">
+        <f>MID(TEXT(I81-H81,"h小时m分"),4,2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="E82" s="22">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="29">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="K82" s="26" t="str">
+        <f>MID(TEXT(I82-H82,"h小时m分"),4,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E83" s="22">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
         <v>81</v>
       </c>
-      <c r="G80" s="29"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="K80" s="26" t="str">
-        <f>MID(TEXT(I81-H81,"h小时m分"),4,2)</f>
+      <c r="G83" s="29">
+        <v>10</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="K83" s="26" t="str">
+        <f>MID(TEXT(I83-H83,"h小时m分"),4,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E84" s="22">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="29">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="K84" s="26" t="str">
+        <f>MID(TEXT(I84-H84,"h小时m分"),4,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="13">
+        <f>SUM(B92:B114)</f>
+        <v>140</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E86" s="8">
+        <f>2*60+22</f>
+        <v>142</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="13">
+        <f>SUM(J86:J90)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="22">
+        <v>1</v>
+      </c>
+      <c r="L86" s="26" t="str">
+        <f>TEXT(I86-H86,"h小时m分")</f>
+        <v>0小时0分</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="13">
+        <v>10</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="13">
+        <f>SUM(G97,G101,G113:G114)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="22">
+        <v>2</v>
+      </c>
+      <c r="L87" s="26" t="str">
+        <f>TEXT(I87-H87,"h小时m分")</f>
+        <v>0小时0分</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="13">
+        <f>G86-G87-G90</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="22"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="13">
+        <f>SUM(B92:B96,B98:B114)</f>
+        <v>130</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="13">
+        <f>SUM(G92:G96,G98:G100,G102:G112,G115:G117)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E92" s="22">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.8979166666666667</v>
+      </c>
+      <c r="K92" s="26" t="str">
+        <f>MID(TEXT(I92-H92,"h小时m分"),4,2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" ref="C93:C105" si="11">D92</f>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="E93" s="22">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="1">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K93" s="26" t="str">
+        <f>MID(TEXT(I93-H93,"h小时m分"),4,2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E94" s="22">
+        <f t="shared" ref="E94:E109" si="12">E93+1</f>
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="1">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="26" t="str">
+        <f>MID(TEXT(I94-H94,"h小时m分"),4,2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1">
+        <f>D94</f>
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D95" s="31">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E95" s="22">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="1">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="26" t="str">
+        <f t="shared" ref="K95:K100" si="13">MID(TEXT(I95-H95,"h小时m分"),4,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" ref="C96:C97" si="14">D95</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D96" s="31">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E96" s="22">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G96" s="29"/>
+      <c r="I96" s="1"/>
+      <c r="K96" s="26" t="e">
+        <f>MID(TEXT(I96-H99,"h小时m分"),4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="14"/>
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D97" s="31">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E97" s="22">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="29"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="K97" s="26" t="str">
+        <f>MID(TEXT(I97-H97,"h小时m分"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="11"/>
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D98" s="31">
+        <v>0.9375</v>
+      </c>
+      <c r="E98" s="22">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98" s="29"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="K98" s="26" t="str">
+        <f>MID(TEXT(I98-H98,"h小时m分"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="11"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D99" s="31">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="E99" s="22">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99" s="29"/>
+      <c r="H99" s="1">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="K99" s="26" t="e">
+        <f>MID(TEXT(I99-#REF!,"h小时m分"),4,1)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="11"/>
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="D100" s="31">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="E100" s="22">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="29"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="K100" s="26" t="str">
+        <f t="shared" ref="K100:K105" si="15">MID(TEXT(I100-H100,"h小时m分"),4,2)</f>
         <v>0分</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
-      <c r="E81" s="22"/>
-      <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" s="29"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="K81" s="26"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E82" s="22"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="K82" s="26"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E83" s="22"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="K83" s="26"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E84" s="22"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="K84" s="26"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D85" s="1"/>
-      <c r="E85" s="22"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="K85" s="26"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E86" s="22"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="K86" s="26"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="11"/>
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E101" s="22">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+      <c r="K101" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="11"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E102" s="22">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>92</v>
+      </c>
+      <c r="K102" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="11"/>
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="E103" s="22">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>93</v>
+      </c>
+      <c r="K103" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="11"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E104" s="22">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>94</v>
+      </c>
+      <c r="K104" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="E105" s="22">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>95</v>
+      </c>
+      <c r="K105" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>0分</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="22">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="22">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="22">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="22">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="G85:I85"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B18:D18"/>
